--- a/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="M2" s="8" t="n"/>
@@ -605,10 +605,14 @@
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="n"/>
+          <t>2020-11-03</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>CCB_LIQ_EUR_DATAASSURANCE_20201103.DAT</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -644,7 +648,7 @@
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="M4" s="4" t="n"/>
@@ -683,7 +687,7 @@
       <c r="K5" s="8" t="n"/>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>

--- a/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
@@ -422,7 +422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="M2" s="8" t="n"/>
@@ -605,12 +605,12 @@
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>CCB_LIQ_EUR_DATAASSURANCE_20201103.DAT</t>
+          <t>CCB_LIQ_EUR_DATAASSURANCE_20200713.DAT</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="M4" s="4" t="n"/>
@@ -687,7 +687,7 @@
       <c r="K5" s="8" t="n"/>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>

--- a/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
@@ -422,7 +422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="M2" s="8" t="n"/>
@@ -605,12 +605,12 @@
       <c r="K3" s="8" t="n"/>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>CCB_LIQ_EUR_DATAASSURANCE_20200713.DAT</t>
+          <t>CCB_LIQ_EUR_DATAASSURANCE_20211102.DAT</t>
         </is>
       </c>
     </row>
@@ -648,10 +648,14 @@
       <c r="K4" s="8" t="n"/>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="n"/>
+          <t>2021-11-02</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>CCB_LIQ_EUR_DATAASSURANCE_20211102.DAT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -687,10 +691,14 @@
       <c r="K5" s="8" t="n"/>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
-        </is>
-      </c>
-      <c r="M5" s="4" t="n"/>
+          <t>2021-11-02</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>CCB_LIQ_EUR_DATAASSURANCE_20211102.DAT</t>
+        </is>
+      </c>
     </row>
     <row r="6"/>
     <row r="7"/>

--- a/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
@@ -1,56 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86A214-431D-4441-97A9-6FC32D6572D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DNA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+  <si>
+    <t>rowid</t>
+  </si>
+  <si>
+    <t>Test_Case</t>
+  </si>
+  <si>
+    <t>Extract_Files_Path</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Batch_Net</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Delimiter</t>
+  </si>
+  <si>
+    <t>Refresh_Every_Time</t>
+  </si>
+  <si>
+    <t>Refresh_Every_MinuteOrSecond</t>
+  </si>
+  <si>
+    <t>Last_Job_Name</t>
+  </si>
+  <si>
+    <t>BPR_Name</t>
+  </si>
+  <si>
+    <t>Business_Date</t>
+  </si>
+  <si>
+    <t>DAT_File</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DNA_01</t>
+  </si>
+  <si>
+    <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
+  </si>
+  <si>
+    <t>ZONE2</t>
+  </si>
+  <si>
+    <t>TEST_DE</t>
+  </si>
+  <si>
+    <t>Once - Specific Date</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>DE_FULL</t>
+  </si>
+  <si>
+    <t>mancsleverg0018_2</t>
+  </si>
+  <si>
+    <t>2021-11-02</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DNA_03</t>
+  </si>
+  <si>
+    <t>CCB_LIQ_EUR_DATAASSURANCE_20211102.DAT</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DNA_04</t>
+  </si>
+  <si>
+    <t>DNA_06</t>
+  </si>
+  <si>
+    <t>Column Colors</t>
+  </si>
+  <si>
+    <t>User manual input</t>
+  </si>
+  <si>
+    <t>Written by auto script</t>
+  </si>
+  <si>
+    <t>Branch_Code</t>
+  </si>
+  <si>
+    <t>CB001,CB022</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,7 +193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.3499862666707358"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,26 +212,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,324 +540,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="6" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="18.88671875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="79" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="6.5546875" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.77734375" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="17.5546875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="18.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="28.77734375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="14.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="30.6640625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="13.109375" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
-    <col width="41.21875" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Extract_Files_Path</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Batch_Net</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Delimiter</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Refresh_Every_Time</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Refresh_Every_MinuteOrSecond</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Last_Job_Name</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>BPR_Name</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>Business_Date</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>DAT_File</t>
-        </is>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>DNA_01</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Once - Specific Date</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>minutes</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>DE_FULL</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>mancsleverg0018_2</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>2021-11-02</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="n"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>DNA_03</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="8" t="n"/>
-      <c r="H3" s="8" t="n"/>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="8" t="n"/>
-      <c r="K3" s="8" t="n"/>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>2021-11-02</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>CCB_LIQ_EUR_DATAASSURANCE_20211102.DAT</t>
-        </is>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="8"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>DNA_04</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="8" t="n"/>
-      <c r="H4" s="8" t="n"/>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="n"/>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>2021-11-02</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>CCB_LIQ_EUR_DATAASSURANCE_20211102.DAT</t>
-        </is>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>DNA_06</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="8" t="n"/>
-      <c r="K5" s="8" t="n"/>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>2021-11-02</t>
-        </is>
-      </c>
-      <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t>CCB_LIQ_EUR_DATAASSURANCE_20211102.DAT</t>
-        </is>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="8"/>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Column Colors</t>
-        </is>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>User manual input</t>
-        </is>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>Written by auto script</t>
-        </is>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86A214-431D-4441-97A9-6FC32D6572D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76337F76-001C-419E-81C8-2FE7AA16F160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <t>Branch_Code</t>
   </si>
   <si>
-    <t>CB001,CB022</t>
+    <t>CG852</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>

--- a/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76337F76-001C-419E-81C8-2FE7AA16F160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB58E305-FA47-4A5E-93CB-E179ED41FBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>rowid</t>
   </si>
@@ -128,13 +128,25 @@
   </si>
   <si>
     <t>CG852</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DWE_Extract_Files_Path</t>
+  </si>
+  <si>
+    <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DWE_LIQ\DWE_LIQ_Extracts\DWELIQ_Multi_E2E_002\ZONE2\</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,6 +176,11 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -211,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -226,6 +243,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,11 +562,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,19 +574,20 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,40 +598,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -622,37 +644,38 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="8"/>
       <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -662,27 +685,28 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -693,30 +717,35 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>30</v>
@@ -724,42 +753,44 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNA/EVG_DNA_TestData_EU.xlsx
@@ -1,56 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52EC798-A0A7-4EE2-BE65-4C69F48913E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="936" yWindow="936" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DNA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+  <si>
+    <t>rowid</t>
+  </si>
+  <si>
+    <t>Test_Case</t>
+  </si>
+  <si>
+    <t>Extract_Files_Path</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>Batch_Net</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Delimiter</t>
+  </si>
+  <si>
+    <t>Refresh_Every_Time</t>
+  </si>
+  <si>
+    <t>Refresh_Every_MinuteOrSecond</t>
+  </si>
+  <si>
+    <t>Last_Job_Name</t>
+  </si>
+  <si>
+    <t>BPR_Name</t>
+  </si>
+  <si>
+    <t>Business_Date</t>
+  </si>
+  <si>
+    <t>DAT_File</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DNA_01</t>
+  </si>
+  <si>
+    <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
+  </si>
+  <si>
+    <t>ZONE2</t>
+  </si>
+  <si>
+    <t>TEST_DE</t>
+  </si>
+  <si>
+    <t>Once - Specific Date</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>DE_FULL</t>
+  </si>
+  <si>
+    <t>mancsleverg0018_2</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DNA_03</t>
+  </si>
+  <si>
+    <t>CCB_LIQ_EUR_DATAASSURANCE_20200713.DAT</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DNA_04</t>
+  </si>
+  <si>
+    <t>DNA_06</t>
+  </si>
+  <si>
+    <t>Column Colors</t>
+  </si>
+  <si>
+    <t>User manual input</t>
+  </si>
+  <si>
+    <t>Written by auto script</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,7 +190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.3499862666707358"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,26 +209,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,316 +537,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="6" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="18.88671875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="79" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="6.5546875" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9.77734375" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="17.5546875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="18.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="28.77734375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="14.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="30.6640625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="13.109375" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
-    <col width="41.21875" bestFit="1" customWidth="1" style="1" min="13" max="13"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Extract_Files_Path</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Batch_Net</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Delimiter</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Refresh_Every_Time</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Refresh_Every_MinuteOrSecond</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Last_Job_Name</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>BPR_Name</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>Business_Date</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>DAT_File</t>
-        </is>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>DNA_01</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Once - Specific Date</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>minutes</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>DE_FULL</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>mancsleverg0018_2</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>2020-07-13</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="n"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>DNA_03</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="8" t="n"/>
-      <c r="H3" s="8" t="n"/>
-      <c r="I3" s="8" t="n"/>
-      <c r="J3" s="8" t="n"/>
-      <c r="K3" s="8" t="n"/>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>2020-07-13</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>CCB_LIQ_EUR_DATAASSURANCE_20200713.DAT</t>
-        </is>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>DNA_04</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="8" t="n"/>
-      <c r="H4" s="8" t="n"/>
-      <c r="I4" s="8" t="n"/>
-      <c r="J4" s="8" t="n"/>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>2020-07-13</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="n"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>DNA_06</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\Extracts\DNA\DNA_Extracts\</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ZONE2</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>TEST_DE</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
-      <c r="I5" s="8" t="n"/>
-      <c r="J5" s="8" t="n"/>
-      <c r="K5" s="8" t="n"/>
-      <c r="L5" s="4" t="inlineStr">
-        <is>
-          <t>2020-07-13</t>
-        </is>
-      </c>
-      <c r="M5" s="4" t="n"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Column Colors</t>
-        </is>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>User manual input</t>
-        </is>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>Written by auto script</t>
-        </is>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>